--- a/eval_results/AllResults_RRMS_10Runs_BagSample.xlsx
+++ b/eval_results/AllResults_RRMS_10Runs_BagSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/cellCNNClear/data/cellCNN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sav/GolandProjects/cellCNN/eval_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C84A1-CA1E-A846-8DF9-1CC9F58EBB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA8934-5915-D146-9227-6261291BD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{AC667DA7-8BE7-6F41-BC2F-ECE3CB111E46}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{AC667DA7-8BE7-6F41-BC2F-ECE3CB111E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,25 +64,25 @@
     <t>Local_2</t>
   </si>
   <si>
-    <t>PEGASUS (N=2)</t>
-  </si>
-  <si>
     <t>Local_4</t>
-  </si>
-  <si>
-    <t>PEGASUS (N=4)</t>
   </si>
   <si>
     <t>Local_6</t>
   </si>
   <si>
-    <t>PEGASUS (N=6)</t>
-  </si>
-  <si>
     <t>Local_12</t>
   </si>
   <si>
-    <t>PEGASUS (N=12)</t>
+    <t>PriCell (N=2)</t>
+  </si>
+  <si>
+    <t>PriCell (N=4)</t>
+  </si>
+  <si>
+    <t>PriCell (N=6)</t>
+  </si>
+  <si>
+    <t>PriCell (N=12)</t>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A2BDAE-4100-0D4E-91FB-1B23960094C3}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133:E133"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>0.75</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>0.57999999999999996</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <v>0.42</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>0.83</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B47">
         <v>0.83</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>0.75</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>0.41</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>0.67</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>0.5</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>0.75</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>0.63</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>0.54</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>0.83</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>0.79</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>0.71</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>0.42</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>0.63</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>0.57999999999999996</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
         <v>0.45833332999999998</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>0.58333332999999998</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>0.54166667000000002</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
         <v>0.58333332999999998</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>0.45833332999999998</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
         <v>0.47916667000000002</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>0.39583332999999998</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>0.4375</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>0.39583332999999998</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>0.5625</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>0.46875</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <v>0.56770832999999998</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>0.53645832999999998</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75">
         <v>0.5859375</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>0.47135417000000002</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>0.48177082999999998</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>0.40364582999999998</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79">
         <v>0.45833332999999998</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>0.3984375</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>0.55729167000000002</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>0.57999999999999996</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>0.75</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>0.5</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B85">
         <v>0.67</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>0.5</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B87">
         <v>0.83</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B88">
         <v>0.67</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B89">
         <v>0.57999999999999996</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B90">
         <v>0.83</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B91">
         <v>0.57999999999999996</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B92">
         <v>0.63</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <v>0.75</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <v>0.51</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B95">
         <v>0.65</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>0.5</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B97">
         <v>0.83</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>0.53</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B99">
         <v>0.65</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>0.76</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B101">
         <v>0.6</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>0.54166667000000002</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103">
         <v>0.59722222000000003</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104">
         <v>0.61111110999999996</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105">
         <v>0.51388889000000004</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106">
         <v>0.51388889000000004</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B107">
         <v>0.55555555999999995</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B108">
         <v>0.58333332999999998</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109">
         <v>0.51388889000000004</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B110">
         <v>0.55555555999999995</v>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B111">
         <v>0.44444444</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>0.52604167000000002</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B113">
         <v>0.59201389000000004</v>
@@ -2818,7 +2818,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B114">
         <v>0.59201389000000004</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B115">
         <v>0.515625</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B116">
         <v>0.51215277999999997</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B117">
         <v>0.54513889000000004</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B118">
         <v>0.56423610999999996</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B119">
         <v>0.51388889000000004</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B120">
         <v>0.53819444000000005</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B121">
         <v>0.45138888999999999</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>0.75</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>0.57999999999999996</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>0.67</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B125">
         <v>0.83</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B126">
         <v>0.5</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127">
         <v>0.57999999999999996</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128">
         <v>0.5</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129">
         <v>0.75</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130">
         <v>0.67</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131">
         <v>0.57999999999999996</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B132">
         <v>0.75</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B133">
         <v>0.6</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134">
         <v>0.67</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <v>0.83</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B136">
         <v>0.53</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B137">
         <v>0.62</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B138">
         <v>0.52</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B139">
         <v>0.75</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B140">
         <v>0.67</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141">
         <v>0.6</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
         <v>7</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
         <v>7</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
         <v>7</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
         <v>7</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
         <v>7</v>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
         <v>7</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
         <v>7</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
         <v>7</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
         <v>8</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
         <v>8</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
         <v>8</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
         <v>8</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
         <v>8</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
         <v>8</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
         <v>8</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
         <v>8</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
         <v>8</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
         <v>8</v>
